--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="107">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -633,14 +633,14 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.1619433198381"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
@@ -777,7 +777,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
@@ -1150,10 +1150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1494,6 +1494,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1516,14 +1544,14 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
   </cols>
@@ -1822,7 +1850,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
@@ -4254,8 +4282,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,327 +32,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="107">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model4_inhibitors</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>m21</t>
-  </si>
-  <si>
-    <t>m22</t>
-  </si>
-  <si>
-    <t>m23</t>
-  </si>
-  <si>
-    <t>m24</t>
-  </si>
-  <si>
-    <t>m25</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>r14</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>Isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>mets</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>Substrate Order</t>
-  </si>
-  <si>
-    <t>Product Order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>randomSequential</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>dxrInhibition</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>UniUni</t>
-  </si>
-  <si>
-    <t>orderedIspG</t>
-  </si>
-  <si>
-    <t>ispH_branching</t>
-  </si>
-  <si>
-    <t>m13 m14</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="109">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model4_inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomSequential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dxrInhibition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedIspG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispH_branching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -493,7 +499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -516,6 +522,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -631,17 +641,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,79 +684,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="n">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="n">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10" t="n">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -756,7 +774,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -771,38 +789,38 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A5:B5 L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>44</v>
+      <c r="A2" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.00796885600469</v>
@@ -818,8 +836,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>49</v>
+      <c r="A3" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12.3421637076787</v>
@@ -835,8 +853,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>55</v>
+      <c r="A4" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -853,7 +871,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.0431054676763443</v>
@@ -900,7 +918,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -915,32 +933,32 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -954,7 +972,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -968,7 +986,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -982,7 +1000,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -996,7 +1014,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1010,7 +1028,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1024,7 +1042,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1038,7 +1056,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1052,7 +1070,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1066,7 +1084,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1080,7 +1098,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1094,7 +1112,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1108,7 +1126,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1122,7 +1140,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1137,7 +1155,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1152,32 +1170,32 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>82</v>
+      <c r="D1" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1191,7 +1209,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1205,7 +1223,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1219,7 +1237,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1233,7 +1251,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1247,7 +1265,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1261,7 +1279,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1275,7 +1293,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1289,7 +1307,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1303,7 +1321,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1317,7 +1335,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1331,7 +1349,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1345,7 +1363,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1359,7 +1377,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1373,7 +1391,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1387,7 +1405,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1401,7 +1419,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1415,7 +1433,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1429,7 +1447,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1443,7 +1461,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1457,7 +1475,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1471,7 +1489,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1485,7 +1503,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1499,7 +1517,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1513,7 +1531,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1528,7 +1546,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1543,63 +1561,63 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="A5:B5 H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>95</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1610,10 +1628,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1624,13 +1642,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1641,10 +1659,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1655,10 +1673,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1669,13 +1687,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1686,10 +1704,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1700,10 +1718,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1714,10 +1732,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1728,10 +1746,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1742,13 +1760,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1759,10 +1777,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1773,10 +1791,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1787,10 +1805,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1829,7 +1847,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1844,99 +1862,99 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="Q1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="S1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -2016,7 +2034,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2096,7 +2114,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2176,7 +2194,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2256,7 +2274,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2336,7 +2354,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2416,7 +2434,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2496,7 +2514,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2576,7 +2594,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2656,7 +2674,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2736,7 +2754,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2816,7 +2834,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2896,7 +2914,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2976,7 +2994,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3057,7 +3075,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3072,41 +3090,41 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A5:B5 A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>62</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3123,10 +3141,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3143,10 +3161,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3163,10 +3181,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3183,10 +3201,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3203,10 +3221,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3223,10 +3241,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3243,10 +3261,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3263,10 +3281,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3283,10 +3301,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3303,10 +3321,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3323,10 +3341,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3343,10 +3361,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3363,10 +3381,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3383,10 +3401,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3403,10 +3421,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3423,10 +3441,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3443,10 +3461,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3463,10 +3481,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -3483,10 +3501,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -3503,10 +3521,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -3523,10 +3541,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -3543,10 +3561,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -3563,10 +3581,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3583,10 +3601,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3604,7 +3622,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3619,38 +3637,38 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A5:B5 C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3661,10 +3679,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3675,10 +3693,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3689,10 +3707,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3703,10 +3721,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3717,10 +3735,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3731,10 +3749,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3745,10 +3763,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3759,10 +3777,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3773,10 +3791,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3787,10 +3805,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3801,10 +3819,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3815,10 +3833,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3829,10 +3847,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3844,7 +3862,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3859,94 +3877,94 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3961,149 +3979,149 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>68</v>
+      <c r="A1" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4118,149 +4136,149 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4275,31 +4293,31 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>71</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-36.1357777664226</v>
@@ -4310,7 +4328,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4321,7 +4339,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-28.8293007969856</v>
@@ -4332,7 +4350,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.399102338928814</v>
@@ -4343,7 +4361,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-19.5558717961791</v>
@@ -4354,7 +4372,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26.0966668488994</v>
@@ -4365,7 +4383,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4376,7 +4394,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-100</v>
@@ -4387,7 +4405,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14.6785</v>
@@ -4398,7 +4416,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-92.8312600256942</v>
@@ -4409,7 +4427,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.803837543986817</v>
@@ -4420,7 +4438,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-20.6245085645038</v>
@@ -4431,7 +4449,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -4442,7 +4460,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-100</v>
@@ -4454,7 +4472,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4469,29 +4487,29 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2.00506477447043E-006</v>
@@ -4502,7 +4520,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>55</v>
@@ -4513,7 +4531,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.00011547048929337</v>
@@ -4524,7 +4542,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.001</v>
@@ -4535,7 +4553,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.3132036945575E-005</v>
@@ -4546,7 +4564,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>8.7E-005</v>
@@ -4557,7 +4575,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-006</v>
@@ -4568,7 +4586,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -4579,7 +4597,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-006</v>
@@ -4590,7 +4608,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-006</v>
@@ -4601,7 +4619,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.181160404188E-007</v>
@@ -4612,7 +4630,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000564</v>
@@ -4623,7 +4641,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.000187</v>
@@ -4634,7 +4652,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-008</v>
@@ -4645,7 +4663,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.00025</v>
@@ -4656,7 +4674,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-008</v>
@@ -4667,7 +4685,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00691</v>
@@ -4678,7 +4696,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>9.81E-005</v>
@@ -4689,7 +4707,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000182743900470209</v>
@@ -4700,7 +4718,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.36182698457178E-006</v>
@@ -4711,7 +4729,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-006</v>
@@ -4722,7 +4740,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-006</v>
@@ -4733,7 +4751,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1E-006</v>
@@ -4744,7 +4762,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2.96E-005</v>
@@ -4755,7 +4773,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.2E-006</v>
@@ -4767,7 +4785,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">toy_model4_inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -76,18 +76,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -220,12 +211,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">Isoenzymes</t>
@@ -499,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,18 +512,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -641,16 +611,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.46"/>
   </cols>
   <sheetData>
@@ -660,7 +630,7 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -668,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -676,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -732,42 +702,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -790,7 +743,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A5:B5 L31"/>
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -802,25 +755,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>80</v>
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.00796885600469</v>
@@ -836,8 +789,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>51</v>
+      <c r="A3" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12.3421637076787</v>
@@ -853,8 +806,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>57</v>
+      <c r="A4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -871,7 +824,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.0431054676763443</v>
@@ -934,7 +887,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,22 +896,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -972,7 +925,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -986,7 +939,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1000,7 +953,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1014,7 +967,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1028,7 +981,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1042,7 +995,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1056,7 +1009,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1070,7 +1023,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1084,7 +1037,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1098,7 +1051,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1112,7 +1065,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1126,7 +1079,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1140,7 +1093,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1171,7 +1124,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1180,22 +1133,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
+      <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1209,7 +1162,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1223,7 +1176,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1237,7 +1190,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1251,7 +1204,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1265,7 +1218,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1279,7 +1232,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1293,7 +1246,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1307,7 +1260,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1321,7 +1274,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1335,7 +1288,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1349,7 +1302,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1363,7 +1316,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1377,7 +1330,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1391,7 +1344,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1405,7 +1358,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1419,7 +1372,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1433,7 +1386,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1447,7 +1400,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1461,7 +1414,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1475,7 +1428,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1489,7 +1442,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1503,7 +1456,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1517,7 +1470,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1531,7 +1484,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1562,7 +1515,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="A5:B5 H39"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1575,49 +1528,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="J1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1628,10 +1581,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1642,13 +1595,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1659,10 +1612,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1673,10 +1626,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1687,13 +1640,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1704,10 +1657,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1718,10 +1671,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1732,10 +1685,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1746,10 +1699,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1760,13 +1713,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1777,10 +1730,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1791,10 +1744,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1805,10 +1758,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1863,7 +1816,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1873,88 +1826,88 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="T1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="U1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -2034,7 +1987,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2114,7 +2067,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2194,7 +2147,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2274,7 +2227,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2354,7 +2307,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2434,7 +2387,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2514,7 +2467,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2594,7 +2547,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2674,7 +2627,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2754,7 +2707,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2834,7 +2787,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2914,7 +2867,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2994,7 +2947,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3088,534 +3041,379 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A5:B5 A14"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,227 +3433,183 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A5:B5 C14"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>69</v>
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,7 +3632,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3888,77 +3642,77 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3734,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3989,133 +3743,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>70</v>
+      <c r="A1" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4137,7 +3891,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4147,132 +3901,132 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4048,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4305,19 +4059,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>73</v>
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-36.1357777664226</v>
@@ -4328,7 +4082,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4339,7 +4093,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-28.8293007969856</v>
@@ -4350,7 +4104,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.399102338928814</v>
@@ -4361,7 +4115,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-19.5558717961791</v>
@@ -4372,7 +4126,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26.0966668488994</v>
@@ -4383,7 +4137,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4394,7 +4148,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-100</v>
@@ -4405,7 +4159,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14.6785</v>
@@ -4416,7 +4170,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-92.8312600256942</v>
@@ -4427,7 +4181,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.803837543986817</v>
@@ -4438,7 +4192,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-20.6245085645038</v>
@@ -4449,7 +4203,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -4460,7 +4214,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-100</v>
@@ -4488,7 +4242,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4498,18 +4252,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2.00506477447043E-006</v>
@@ -4520,7 +4274,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>55</v>
@@ -4531,7 +4285,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.00011547048929337</v>
@@ -4542,7 +4296,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.001</v>
@@ -4553,7 +4307,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.3132036945575E-005</v>
@@ -4564,7 +4318,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>8.7E-005</v>
@@ -4575,7 +4329,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-006</v>
@@ -4586,7 +4340,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -4597,7 +4351,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-006</v>
@@ -4608,7 +4362,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-006</v>
@@ -4619,7 +4373,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.181160404188E-007</v>
@@ -4630,7 +4384,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000564</v>
@@ -4641,7 +4395,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.000187</v>
@@ -4652,7 +4406,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-008</v>
@@ -4663,7 +4417,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.00025</v>
@@ -4674,7 +4428,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-008</v>
@@ -4685,7 +4439,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00691</v>
@@ -4696,7 +4450,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>9.81E-005</v>
@@ -4707,7 +4461,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000182743900470209</v>
@@ -4718,7 +4472,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.36182698457178E-006</v>
@@ -4729,7 +4483,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-006</v>
@@ -4740,7 +4494,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-006</v>
@@ -4751,7 +4505,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1E-006</v>
@@ -4762,7 +4516,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2.96E-005</v>
@@ -4773,7 +4527,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.2E-006</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
@@ -614,7 +614,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">fpr</t>
@@ -481,7 +478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,10 +517,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -613,7 +606,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -756,19 +749,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,16 +890,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,16 +1127,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,40 +1522,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1584,7 +1577,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1598,7 +1591,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>21</v>
@@ -1615,7 +1608,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1629,7 +1622,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1643,7 +1636,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>27</v>
@@ -1660,7 +1653,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1674,7 +1667,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1688,7 +1681,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1702,7 +1695,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1716,10 +1709,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1733,7 +1726,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1747,7 +1740,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1761,7 +1754,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -3041,16 +3034,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,9 +3056,6 @@
       <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -3077,9 +3067,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3091,9 +3078,6 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3105,9 +3089,6 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -3119,9 +3100,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3133,9 +3111,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3147,9 +3122,6 @@
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3161,9 +3133,6 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3175,9 +3144,6 @@
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3189,9 +3155,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3203,9 +3166,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3217,9 +3177,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -3231,9 +3188,6 @@
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -3245,9 +3199,6 @@
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -3259,9 +3210,6 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -3273,9 +3221,6 @@
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -3287,9 +3232,6 @@
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3301,9 +3243,6 @@
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3315,9 +3254,6 @@
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3329,9 +3265,6 @@
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3343,9 +3276,6 @@
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3357,9 +3287,6 @@
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3371,9 +3298,6 @@
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -3385,9 +3309,6 @@
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -3399,9 +3320,6 @@
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3411,9 +3329,6 @@
         <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3447,16 +3362,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,8 +3658,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>64</v>
+      <c r="A1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,7 +3816,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,13 +3975,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,13 +4167,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -733,150 +732,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1.00796885600469</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.166961099378256</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1.00796885600469</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.166961099378256</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>12.3421637076787</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.02956242208125</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>12.3421637076787</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.02956242208125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.915002642603547</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.0525060204632056</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.915002642603547</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0525060204632056</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.0431054676763443</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.000345933397023627</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.0431054676763443</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.000345933397023627</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1109,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1500,7 +1355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3036,7 +2891,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3544,9 +3399,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3556,78 +3411,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>56</v>
+      <c r="A1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3568,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="0" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3799,163 +3709,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4149,7 +3902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4460,4 +4213,148 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.00796885600469</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.166961099378256</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.00796885600469</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.166961099378256</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>12.3421637076787</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.02956242208125</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>12.3421637076787</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.02956242208125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.915002642603547</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.0525060204632056</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.915002642603547</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0525060204632056</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.0431054676763443</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.000345933397023627</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.0431054676763443</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.000345933397023627</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4_inhibitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="105">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -348,7 +357,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,6 +402,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -477,7 +493,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -506,6 +522,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,7 +546,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,8 +629,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,64 +678,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -735,7 +773,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -744,22 +782,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -773,7 +811,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -787,7 +825,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -801,7 +839,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -815,7 +853,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -829,7 +867,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -843,7 +881,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -857,7 +895,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -871,7 +909,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -885,7 +923,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -899,7 +937,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -913,7 +951,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -927,7 +965,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -941,7 +979,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -972,7 +1010,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A6:B7 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -981,22 +1019,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>77</v>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1010,7 +1048,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1024,7 +1062,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1038,7 +1076,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1052,7 +1090,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1066,7 +1104,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1080,7 +1118,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1094,7 +1132,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1108,7 +1146,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1122,7 +1160,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1136,7 +1174,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1150,7 +1188,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1164,7 +1202,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1178,7 +1216,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1192,7 +1230,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1206,7 +1244,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1220,7 +1258,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1234,7 +1272,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1248,7 +1286,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1262,7 +1300,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1276,7 +1314,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1290,7 +1328,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1304,7 +1342,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1318,7 +1356,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1332,7 +1370,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1363,7 +1401,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="A6:B7 H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,49 +1414,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>90</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1429,10 +1467,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1443,13 +1481,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1460,10 +1498,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1474,10 +1512,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1488,13 +1526,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1505,10 +1543,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1519,10 +1557,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1533,10 +1571,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1547,10 +1585,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1561,13 +1599,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1578,10 +1616,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1592,10 +1630,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1606,10 +1644,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1664,7 +1702,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1674,88 +1712,88 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="O1" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="P1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="S1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -1835,7 +1873,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1915,7 +1953,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1995,7 +2033,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2075,7 +2113,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2155,7 +2193,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2235,7 +2273,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2315,7 +2353,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2395,7 +2433,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2475,7 +2513,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2555,7 +2593,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2635,7 +2673,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2715,7 +2753,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2795,7 +2833,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2892,7 +2930,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2902,22 +2940,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
+      <c r="A1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2925,10 +2963,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2936,10 +2974,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2947,10 +2985,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2958,10 +2996,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2969,10 +3007,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2980,10 +3018,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2991,10 +3029,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3002,10 +3040,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3013,10 +3051,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3024,10 +3062,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3035,10 +3073,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3046,10 +3084,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3057,10 +3095,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3068,10 +3106,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3079,10 +3117,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3090,10 +3128,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3101,10 +3139,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3112,10 +3150,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -3123,10 +3161,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -3134,10 +3172,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -3145,10 +3183,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -3156,10 +3194,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -3167,10 +3205,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3178,10 +3216,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3206,7 +3244,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3216,25 +3254,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3242,10 +3280,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3253,10 +3291,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3264,10 +3302,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3275,10 +3313,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3286,10 +3324,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3297,10 +3335,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3308,10 +3346,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3319,10 +3357,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3330,10 +3368,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3341,10 +3379,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3352,10 +3390,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3363,10 +3401,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3374,10 +3412,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3401,8 +3439,8 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3411,133 +3449,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>63</v>
+      <c r="A1" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3597,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3569,132 +3607,132 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3754,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3727,19 +3765,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>66</v>
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-36.1357777664226</v>
@@ -3750,7 +3788,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3761,7 +3799,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-28.8293007969856</v>
@@ -3772,7 +3810,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.399102338928814</v>
@@ -3783,7 +3821,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-19.5558717961791</v>
@@ -3794,7 +3832,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26.0966668488994</v>
@@ -3805,7 +3843,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -3816,7 +3854,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-100</v>
@@ -3827,7 +3865,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14.6785</v>
@@ -3838,7 +3876,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-92.8312600256942</v>
@@ -3849,7 +3887,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.803837543986817</v>
@@ -3860,7 +3898,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-20.6245085645038</v>
@@ -3871,7 +3909,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -3882,7 +3920,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-100</v>
@@ -3910,7 +3948,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3920,18 +3958,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2.00506477447043E-006</v>
@@ -3942,7 +3980,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>55</v>
@@ -3953,7 +3991,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.00011547048929337</v>
@@ -3964,7 +4002,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.001</v>
@@ -3975,7 +4013,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.3132036945575E-005</v>
@@ -3986,7 +4024,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>8.7E-005</v>
@@ -3997,7 +4035,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-006</v>
@@ -4008,7 +4046,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -4019,7 +4057,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-006</v>
@@ -4030,7 +4068,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-006</v>
@@ -4041,7 +4079,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.181160404188E-007</v>
@@ -4052,7 +4090,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000564</v>
@@ -4063,7 +4101,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.000187</v>
@@ -4074,7 +4112,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-008</v>
@@ -4085,7 +4123,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.00025</v>
@@ -4096,7 +4134,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-008</v>
@@ -4107,7 +4145,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00691</v>
@@ -4118,7 +4156,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>9.81E-005</v>
@@ -4129,7 +4167,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000182743900470209</v>
@@ -4140,7 +4178,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.36182698457178E-006</v>
@@ -4151,7 +4189,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-006</v>
@@ -4162,7 +4200,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-006</v>
@@ -4173,7 +4211,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1E-006</v>
@@ -4184,7 +4222,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2.96E-005</v>
@@ -4195,7 +4233,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.2E-006</v>
@@ -4223,7 +4261,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A6:B7 L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4235,25 +4273,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
+      <c r="A2" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.00796885600469</v>
@@ -4269,8 +4307,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
+      <c r="A3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12.3421637076787</v>
@@ -4286,8 +4324,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>54</v>
+      <c r="A4" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -4304,7 +4342,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.0431054676763443</v>
